--- a/excavator_data_with_details.xlsx
+++ b/excavator_data_with_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,216 +957,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DX220LCA-2M</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>21,300 kg</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.92 m³</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>109/1,800 (kW/rpm)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>DEVELON DB58TIS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.0/5.5 km/h</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>9,875 mm</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>6,595 mm</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>9,625 mm</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>9,505 mm</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>3,005 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DX360LC-7B</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>35.9 ton</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2.32 m3 H class</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>210 kW (286 PS) @ 1,800 rpm</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SCANIA DC09 076A</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.0 - 5.0 km/h</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>10,924 mm</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>7,182 mm</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10,527 mm</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>11,296 mm</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>3,280 mm</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>3,560 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DX260LC-7M</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Details not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DX220A-2M</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>21.3 ton</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.92 m³</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>109 kW (148 PS) @ 1,800 rpm (SAE J1349, Net)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEVELON DB58TIS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.01 / 5.56 km/h</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>9,875 mm</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>6,595 mm</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>6,840 mm</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>9,505 mm</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>3,005 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DX235LCR-7</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Details not found</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
